--- a/xlsx/经济_intext.xlsx
+++ b/xlsx/经济_intext.xlsx
@@ -15,1059 +15,1053 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
   <si>
     <t>经济</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
+  </si>
+  <si>
+    <t>各国人均国内生产总值列表 (购买力平价)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国经济列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>非洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>南美洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>亚洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>欧洲经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/JEL%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>JEL分类系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>微观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宏观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>经济思想史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%96%B9%E6%B3%95</t>
+  </si>
+  <si>
+    <t>经济学方法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E7%BB%9F%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>非正统经济学思想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数理经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E9%87%8F%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计量经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>实验经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
+  </si>
+  <si>
+    <t>国民收入</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>经济体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>经济史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
+  </si>
+  <si>
+    <t>经济增长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>信息经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>博弈论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>行为经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>文化经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>演化经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>发展经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国际经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>货币经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>金融经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公共经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>福利经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>健康经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>农业经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>环境经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%9D%91%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>农村经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>产业组织理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生态经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>封闭经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>二元经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E7%89%A9%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>礼物经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>非正式经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>混合经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>伊斯兰经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
+  </si>
+  <si>
+    <t>自由放任</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>开放经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>参与经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>法西斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>乔治主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>社会主义市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>重商主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>保护主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>工团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9D%A1%E9%81%93%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>第三条道路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81-%E6%92%92%E5%85%8B%E9%80%8A%E6%A8%A1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>盎格鲁-撒克逊模式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%85%A8%E7%90%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>经济全球化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>新兴工业化国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>社会市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>传统经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>资源导向型经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
+  </si>
+  <si>
+    <t>Template talk-Economics sidebar</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A</t>
+  </si>
+  <si>
+    <t>流通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9</t>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E4%B8%96%E6%BF%9F%E6%B0%91</t>
+  </si>
+  <si>
+    <t>经世济民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E7%89%A9</t>
+  </si>
+  <si>
+    <t>财物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E8%8E%B1%E5%BE%B7%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>阿尔弗莱德·马歇尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>汉书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%B4%A7%E5%BF%97</t>
+  </si>
+  <si>
+    <t>食货志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A8%98</t>
+  </si>
+  <si>
+    <t>史记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%99%8B</t>
+  </si>
+  <si>
+    <t>东晋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%B4%AA</t>
+  </si>
+  <si>
+    <t>葛洪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%B1%E6%9C%B4%E5%AD%90</t>
+  </si>
+  <si>
+    <t>抱朴子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>隋朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%80%9A_(%E9%9A%8B%E6%9C%9D)</t>
+  </si>
+  <si>
+    <t>王通 (隋朝)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%B8%AD%E5%AD%90</t>
+  </si>
+  <si>
+    <t>文中子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%8A%E6%88%8C%E6%94%BF%E5%8F%98</t>
+  </si>
+  <si>
+    <t>戊戌政变</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>科举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>明朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%A4%AB%E4%B9%8B</t>
+  </si>
+  <si>
+    <t>王夫之</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E7%82%8E%E6%AD%A6</t>
+  </si>
+  <si>
+    <t>顾炎武</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%A2%A8%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>黄梨洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>程朱理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%88%B7%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>江户时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%BE%A4%E8%AB%AD%E5%90%89</t>
+  </si>
+  <si>
+    <t>福泽谕吉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
+  </si>
+  <si>
+    <t>梁启超</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%BE%A9</t>
+  </si>
+  <si>
+    <t>严复</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AF%8C</t>
+  </si>
+  <si>
+    <t>原富</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
+  </si>
+  <si>
+    <t>汉字文化圈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>和制汉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8D%A2</t>
+  </si>
+  <si>
+    <t>交换</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E6%94%BF</t>
+  </si>
+  <si>
+    <t>邮政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%81%E5%88%B8</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国民生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>入口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%8F%A3%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>出口贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%85%A5%E5%88%86%E9%85%8D</t>
+  </si>
+  <si>
+    <t>收入分配</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99</t>
+  </si>
+  <si>
+    <t>供给</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E5%92%8C%E9%9C%80%E6%B1%82</t>
+  </si>
+  <si>
+    <t>供给和需求</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%95%88%E9%9C%80%E6%B1%82</t>
+  </si>
+  <si>
+    <t>有效需求</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E9%9C%80</t>
+  </si>
+  <si>
+    <t>军需</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80%E7%94%A2%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>军需产业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E7%99%BC</t>
+  </si>
+  <si>
+    <t>批发</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE</t>
+  </si>
+  <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%94%80%E5%94%AE</t>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>宣传</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A5%E9%94%80</t>
+  </si>
+  <si>
+    <t>营销</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%91%A8%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>经济周期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>产业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>资本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
+  </si>
+  <si>
+    <t>股票</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%87%E7%94%A8</t>
+  </si>
+  <si>
+    <t>雇用</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%81%AF</t>
+  </si>
+  <si>
+    <t>利息</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
+  </si>
+  <si>
+    <t>通货膨胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E7%B4%A7%E7%BC%A9</t>
+  </si>
+  <si>
+    <t>通货紧缩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BB%9E%E8%83%80</t>
+  </si>
+  <si>
+    <t>滞胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%9B%B7%E6%89%98%E6%B3%95%E5%88%99</t>
+  </si>
+  <si>
+    <t>帕雷托法则</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%A4%AA%E6%95%88%E5%BA%94</t>
+  </si>
+  <si>
+    <t>马太效应</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%9D%B4%E8%9D%B6%E6%95%88%E5%BA%94</t>
+  </si>
+  <si>
+    <t>蝴蝶效应</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>计划经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
+  </si>
+  <si>
+    <t>垄断</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡特尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E9%87%87%E6%81%A9</t>
+  </si>
+  <si>
+    <t>康采恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>托拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BF%AA%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>辛迪加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>金本位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E6%B2%AB%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>泡沫经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E5%8A%A8%E6%B1%87%E7%8E%87%E5%88%B6</t>
+  </si>
+  <si>
+    <t>浮动汇率制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%B1%87%E7%8E%87%E5%88%B6</t>
+  </si>
+  <si>
+    <t>固定汇率制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>股份公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>合资公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>有限公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>金融机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>商业银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>投资银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E5%88%B8</t>
+  </si>
+  <si>
+    <t>债券</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B4%A7</t>
+  </si>
+  <si>
+    <t>期货</t>
+  </si>
+  <si>
+    <t>http://ja.wikipedia.org/wiki/%E7%B5%8C%E6%B8%88</t>
+  </si>
+  <si>
+    <t>日文维基百科中的「经济（経済）」词条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%AB%94</t>
+  </si>
+  <si>
+    <t>经济体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国人均国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国经济列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>非洲經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>南美洲经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>亞洲經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>欧洲经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/JEL%E5%88%86%E7%B1%BB%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>JEL分类系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>微观经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宏观经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>经济思想史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%96%B9%E6%B3%95</t>
-  </si>
-  <si>
-    <t>经济学方法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E7%BB%9F%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>非正统经济学思想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数理经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E9%87%8F%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计量经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>实验经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>國民收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>经济体系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>经济史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
-  </si>
-  <si>
-    <t>经济增长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>劳动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>信息经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>博弈论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>行為經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>文化经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>演化经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>发展经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国际经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>貨幣經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>金融经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公共經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>福利经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>健康经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>農業經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>环境经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E6%9D%91%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>农村经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>产业组织理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生態經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>封閉經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>二元经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E7%89%A9%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>礼物经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>非正式經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>混合经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>伊斯兰经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
-  </si>
-  <si>
-    <t>自由放任</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>开放经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>参与经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社团主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>法西斯主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>乔治主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>社会主义市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>重商主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>保护主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>工团主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9D%A1%E9%81%93%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>第三条道路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81-%E6%92%92%E5%85%8B%E9%80%8A%E6%A8%A1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>盎格鲁-撒克逊模式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%85%A8%E7%90%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>经济全球化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>新興工業化國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>社会市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>传统经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>資源導向型經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
-  </si>
-  <si>
-    <t>Template talk-Economics sidebar</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7</t>
-  </si>
-  <si>
-    <t>生产</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A</t>
-  </si>
-  <si>
-    <t>流通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9</t>
-  </si>
-  <si>
-    <t>消费</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E4%B8%96%E6%BF%9F%E6%B0%91</t>
-  </si>
-  <si>
-    <t>經世濟民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2</t>
-  </si>
-  <si>
-    <t>生產</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
-  </si>
-  <si>
-    <t>消費</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E7%89%A9</t>
-  </si>
-  <si>
-    <t>财物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E8%8E%B1%E5%BE%B7%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>阿尔弗莱德·马歇尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>漢書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%B4%A7%E5%BF%97</t>
-  </si>
-  <si>
-    <t>食货志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A8%98</t>
-  </si>
-  <si>
-    <t>史記</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%99%8B</t>
-  </si>
-  <si>
-    <t>东晋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%B4%AA</t>
-  </si>
-  <si>
-    <t>葛洪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%B1%E6%9C%B4%E5%AD%90</t>
-  </si>
-  <si>
-    <t>抱朴子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>隋朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%80%9A_(%E9%9A%8B%E6%9C%9D)</t>
-  </si>
-  <si>
-    <t>王通 (隋朝)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%B8%AD%E5%AD%90</t>
-  </si>
-  <si>
-    <t>文中子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%8A%E6%88%8C%E6%94%BF%E5%8F%98</t>
-  </si>
-  <si>
-    <t>戊戌政变</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>科举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>明朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%A4%AB%E4%B9%8B</t>
-  </si>
-  <si>
-    <t>王夫之</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E7%82%8E%E6%AD%A6</t>
-  </si>
-  <si>
-    <t>顧炎武</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%A2%A8%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>黃梨洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>程朱理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%88%B7%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>江户时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%BE%A4%E8%AB%AD%E5%90%89</t>
-  </si>
-  <si>
-    <t>福澤諭吉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
-  </si>
-  <si>
-    <t>梁啟超</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%BE%A9</t>
-  </si>
-  <si>
-    <t>嚴復</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AF%8C</t>
-  </si>
-  <si>
-    <t>原富</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
-  </si>
-  <si>
-    <t>汉字文化圈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>和製漢語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81</t>
-  </si>
-  <si>
-    <t>货币</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8D%A2</t>
-  </si>
-  <si>
-    <t>交换</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E6%94%BF</t>
-  </si>
-  <si>
-    <t>郵政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%81%E5%88%B8</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
-  </si>
-  <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
-  </si>
-  <si>
-    <t>国民生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>入口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%8F%A3%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>出口贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%85%A5%E5%88%86%E9%85%8D</t>
-  </si>
-  <si>
-    <t>收入分配</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82</t>
-  </si>
-  <si>
-    <t>需求</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99</t>
-  </si>
-  <si>
-    <t>供给</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E5%92%8C%E9%9C%80%E6%B1%82</t>
-  </si>
-  <si>
-    <t>供给和需求</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%95%88%E9%9C%80%E6%B1%82</t>
-  </si>
-  <si>
-    <t>有效需求</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E9%9C%80</t>
-  </si>
-  <si>
-    <t>军需</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80%E7%94%A2%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>軍需產業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E7%99%BC</t>
-  </si>
-  <si>
-    <t>批發</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%94%80%E5%94%AE</t>
-  </si>
-  <si>
-    <t>销售</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>宣传</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A5%E9%94%80</t>
-  </si>
-  <si>
-    <t>营销</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%91%A8%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>经济周期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>产业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>资本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
-  </si>
-  <si>
-    <t>股票</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%87%E7%94%A8</t>
-  </si>
-  <si>
-    <t>雇用</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%81%AF</t>
-  </si>
-  <si>
-    <t>利息</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
-  </si>
-  <si>
-    <t>通货膨胀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E7%B4%A7%E7%BC%A9</t>
-  </si>
-  <si>
-    <t>通货紧缩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BB%9E%E8%83%80</t>
-  </si>
-  <si>
-    <t>滞胀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%9B%B7%E6%89%98%E6%B3%95%E5%88%99</t>
-  </si>
-  <si>
-    <t>帕雷托法则</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%A4%AA%E6%95%88%E5%BA%94</t>
-  </si>
-  <si>
-    <t>马太效应</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9D%B4%E8%9D%B6%E6%95%88%E5%BA%94</t>
-  </si>
-  <si>
-    <t>蝴蝶效应</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>计划经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
-  </si>
-  <si>
-    <t>垄断</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡特尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E9%87%87%E6%81%A9</t>
-  </si>
-  <si>
-    <t>康采恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>托拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BF%AA%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>辛迪加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>金本位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E6%B2%AB%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>泡沫经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E5%8A%A8%E6%B1%87%E7%8E%87%E5%88%B6</t>
-  </si>
-  <si>
-    <t>浮动汇率制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%B1%87%E7%8E%87%E5%88%B6</t>
-  </si>
-  <si>
-    <t>固定汇率制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>股份公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>合資公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>有限公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>金融机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>商业银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>投资银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E5%88%B8</t>
-  </si>
-  <si>
-    <t>债券</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B4%A7</t>
-  </si>
-  <si>
-    <t>期货</t>
-  </si>
-  <si>
-    <t>http://ja.wikipedia.org/wiki/%E7%B5%8C%E6%B8%88</t>
-  </si>
-  <si>
-    <t>日文維基百科中的「經濟（経済）」词条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%AB%94</t>
-  </si>
-  <si>
-    <t>經濟體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3642,7 +3636,7 @@
         <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3668,10 +3662,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3697,10 +3691,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3726,10 +3720,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3755,10 +3749,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3784,10 +3778,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3813,10 +3807,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3842,10 +3836,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3871,10 +3865,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3900,10 +3894,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3929,10 +3923,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3958,10 +3952,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3987,10 +3981,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4016,10 +4010,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4045,10 +4039,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4074,10 +4068,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4103,10 +4097,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4132,10 +4126,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4161,10 +4155,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4190,10 +4184,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -4219,10 +4213,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4248,10 +4242,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4277,10 +4271,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4306,10 +4300,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4335,10 +4329,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4364,10 +4358,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -4393,10 +4387,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4422,10 +4416,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4451,10 +4445,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4480,10 +4474,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4509,10 +4503,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4538,10 +4532,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4567,10 +4561,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4596,10 +4590,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -4625,10 +4619,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4654,10 +4648,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4683,10 +4677,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4712,10 +4706,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4741,10 +4735,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4770,10 +4764,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4799,10 +4793,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4828,10 +4822,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4857,10 +4851,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4886,10 +4880,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4915,10 +4909,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4944,10 +4938,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4973,10 +4967,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5002,10 +4996,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5031,10 +5025,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5060,10 +5054,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5089,10 +5083,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5118,10 +5112,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5147,10 +5141,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5176,10 +5170,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5205,10 +5199,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5234,10 +5228,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5263,10 +5257,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5292,10 +5286,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5321,10 +5315,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -5350,10 +5344,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5379,10 +5373,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5408,10 +5402,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5437,10 +5431,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5466,10 +5460,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5495,10 +5489,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5524,10 +5518,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5553,10 +5547,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5582,10 +5576,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5611,10 +5605,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5640,10 +5634,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5669,10 +5663,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5698,10 +5692,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5727,10 +5721,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5756,10 +5750,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5785,10 +5779,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5814,10 +5808,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5843,10 +5837,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5872,10 +5866,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5901,10 +5895,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5930,10 +5924,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5959,10 +5953,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5988,10 +5982,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6017,10 +6011,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6046,10 +6040,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -6075,10 +6069,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6104,10 +6098,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6133,10 +6127,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6162,10 +6156,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6191,10 +6185,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6220,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6249,10 +6243,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6278,10 +6272,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6307,10 +6301,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6336,10 +6330,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6365,10 +6359,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>6</v>
@@ -6394,10 +6388,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>7</v>
@@ -6423,10 +6417,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -6452,10 +6446,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -6481,10 +6475,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6510,10 +6504,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6522,6 +6516,64 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>176</v>
+      </c>
+      <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
+        <v>347</v>
+      </c>
+      <c r="G177" t="n">
+        <v>7</v>
+      </c>
+      <c r="H177" t="s">
+        <v>4</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>177</v>
+      </c>
+      <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
+        <v>348</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>4</v>
+      </c>
+      <c r="I178" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/经济_intext.xlsx
+++ b/xlsx/经济_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_政治_经济</t>
+    <t>体育运动_体育运动_伊朗_经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
